--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B3B3DA-F76E-4D15-841A-FE2F0ECD376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A84308-ED4C-4742-8B68-703A4B4FE11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>Module</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Mid Sem</t>
+  </si>
+  <si>
+    <t>Non</t>
   </si>
 </sst>
 </file>
@@ -111,25 +114,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -146,16 +149,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
@@ -472,20 +474,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2DC14-AEBF-4D39-9D44-8E91CF3B9CFE}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:AO14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="30.90625" customWidth="1"/>
+    <col min="1" max="1" width="30.81640625" customWidth="1"/>
     <col min="2" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -499,91 +501,91 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="2">
         <v>44976</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
+    <row r="3" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>44972</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>44958</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
+    <row r="5" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="1">
         <v>1</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>44965</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="1">
         <v>1</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="2">
         <v>44985</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <v>44974</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -594,49 +596,128 @@
         <v>45127</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4">
+        <v>44969</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44977</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44979</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="8">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9">
+        <v>44992</v>
+      </c>
+      <c r="D12" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="5">
-        <v>1</v>
-      </c>
-      <c r="C9" s="6">
-        <v>44969</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
+    <row r="13" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="C10" s="4">
-        <v>44977</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="C13" s="6">
+        <v>45011</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="10">
-        <v>44979</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>8</v>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
+      <c r="U13" s="7"/>
+      <c r="V13" s="7"/>
+      <c r="W13" s="7"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
+      <c r="Z13" s="7"/>
+      <c r="AA13" s="7"/>
+      <c r="AB13" s="7"/>
+      <c r="AC13" s="7"/>
+      <c r="AD13" s="7"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
+      <c r="AG13" s="7"/>
+      <c r="AH13" s="7"/>
+      <c r="AI13" s="7"/>
+      <c r="AJ13" s="7"/>
+      <c r="AK13" s="7"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
+    </row>
+    <row r="14" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
+      </c>
+      <c r="C14" s="6">
+        <v>45004</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13A84308-ED4C-4742-8B68-703A4B4FE11D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC11E61-F6CF-45EA-919F-27FCB96DAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
+    <workbookView xWindow="28680" yWindow="-3510" windowWidth="38640" windowHeight="21120" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Module</t>
   </si>
@@ -83,7 +83,10 @@
     <t>Mid Sem</t>
   </si>
   <si>
-    <t>Non</t>
+    <t>Part 1</t>
+  </si>
+  <si>
+    <t>Part 2</t>
   </si>
 </sst>
 </file>
@@ -105,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -121,12 +124,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -158,8 +155,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -474,17 +470,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2DC14-AEBF-4D39-9D44-8E91CF3B9CFE}">
-  <dimension ref="A1:AO14"/>
+  <dimension ref="A1:AO17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="30.81640625" customWidth="1"/>
-    <col min="2" max="3" width="18.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.35">
@@ -512,7 +509,7 @@
         <v>44976</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:41" x14ac:dyDescent="0.35">
@@ -642,16 +639,16 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>3</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="8">
         <v>44992</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -668,43 +665,43 @@
       <c r="D13" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7"/>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7"/>
-      <c r="S13" s="7"/>
-      <c r="T13" s="7"/>
-      <c r="U13" s="7"/>
-      <c r="V13" s="7"/>
-      <c r="W13" s="7"/>
-      <c r="X13" s="7"/>
-      <c r="Y13" s="7"/>
-      <c r="Z13" s="7"/>
-      <c r="AA13" s="7"/>
-      <c r="AB13" s="7"/>
-      <c r="AC13" s="7"/>
-      <c r="AD13" s="7"/>
-      <c r="AE13" s="7"/>
-      <c r="AF13" s="7"/>
-      <c r="AG13" s="7"/>
-      <c r="AH13" s="7"/>
-      <c r="AI13" s="7"/>
-      <c r="AJ13" s="7"/>
-      <c r="AK13" s="7"/>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="7"/>
-      <c r="AN13" s="7"/>
-      <c r="AO13" s="7"/>
+      <c r="E13"/>
+      <c r="F13"/>
+      <c r="G13"/>
+      <c r="H13"/>
+      <c r="I13"/>
+      <c r="J13"/>
+      <c r="K13"/>
+      <c r="L13"/>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13"/>
+      <c r="R13"/>
+      <c r="S13"/>
+      <c r="T13"/>
+      <c r="U13"/>
+      <c r="V13"/>
+      <c r="W13"/>
+      <c r="X13"/>
+      <c r="Y13"/>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+      <c r="AC13"/>
+      <c r="AD13"/>
+      <c r="AE13"/>
+      <c r="AF13"/>
+      <c r="AG13"/>
+      <c r="AH13"/>
+      <c r="AI13"/>
+      <c r="AJ13"/>
+      <c r="AK13"/>
+      <c r="AL13"/>
+      <c r="AM13"/>
+      <c r="AN13"/>
+      <c r="AO13"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
@@ -717,7 +714,49 @@
         <v>45004</v>
       </c>
       <c r="D14" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>15</v>
+      </c>
+      <c r="C15" s="6">
+        <v>44993</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:41" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="6">
+        <v>45005</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="5">
+        <v>4</v>
+      </c>
+      <c r="C17" s="6">
+        <v>44992</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -727,18 +766,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -913,14 +952,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D785E3-0195-4B55-858A-A77925B01C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -933,6 +964,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f99257f0-862f-4026-a3ad-9f44ac784c49"/>
     <ds:schemaRef ds:uri="976089e0-a66d-4ce8-baa4-c0b3da948c6c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC11E61-F6CF-45EA-919F-27FCB96DAE07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B6EBE7-0C4B-4148-90E6-0DCA1190614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-3510" windowWidth="38640" windowHeight="21120" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
+    <workbookView xWindow="28680" yWindow="-1815" windowWidth="38640" windowHeight="21120" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
   <si>
     <t>Module</t>
   </si>
@@ -470,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2DC14-AEBF-4D39-9D44-8E91CF3B9CFE}">
-  <dimension ref="A1:AO17"/>
+  <dimension ref="A1:AO18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -639,16 +639,16 @@
       </c>
     </row>
     <row r="12" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="7">
+      <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="2">
         <v>44992</v>
       </c>
-      <c r="D12" s="7" t="s">
+      <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -746,16 +746,30 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B17" s="7">
         <v>4</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="8">
         <v>44992</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="5">
+        <v>2</v>
+      </c>
+      <c r="C18" s="6">
+        <v>45009</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62B6EBE7-0C4B-4148-90E6-0DCA1190614D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEA12A9-A5EC-462A-8788-608BD5F4498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-1815" windowWidth="38640" windowHeight="21120" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
   <si>
     <t>Module</t>
   </si>
@@ -146,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -156,6 +156,7 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2DC14-AEBF-4D39-9D44-8E91CF3B9CFE}">
-  <dimension ref="A1:AO18"/>
+  <dimension ref="A1:AO19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -704,30 +705,30 @@
       <c r="AO13"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="7">
         <v>2</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="8">
         <v>45004</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="8">
         <v>44993</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="7" t="s">
         <v>8</v>
       </c>
     </row>
@@ -770,6 +771,20 @@
         <v>45009</v>
       </c>
       <c r="D18" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="5">
+        <v>2</v>
+      </c>
+      <c r="C19" s="9">
+        <v>45019</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -780,18 +795,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -966,6 +981,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D785E3-0195-4B55-858A-A77925B01C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -978,14 +1001,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f99257f0-862f-4026-a3ad-9f44ac784c49"/>
     <ds:schemaRef ds:uri="976089e0-a66d-4ce8-baa4-c0b3da948c6c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DEA12A9-A5EC-462A-8788-608BD5F4498A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE045D2-36AA-46C8-9ED2-312142F212EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>Module</t>
   </si>
@@ -108,7 +108,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +133,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -146,7 +152,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -156,7 +162,8 @@
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -471,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2DC14-AEBF-4D39-9D44-8E91CF3B9CFE}">
-  <dimension ref="A1:AO19"/>
+  <dimension ref="A1:AO20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -719,44 +726,44 @@
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="2">
         <v>44993</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D15" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="8">
         <v>45005</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="D16" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="1">
         <v>4</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="2">
         <v>44992</v>
       </c>
-      <c r="D17" s="7" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -781,10 +788,24 @@
       <c r="B19" s="5">
         <v>2</v>
       </c>
-      <c r="C19" s="9">
+      <c r="C19" s="6">
         <v>45019</v>
       </c>
       <c r="D19" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="9">
+        <v>5</v>
+      </c>
+      <c r="C20" s="10">
+        <v>44999</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECE045D2-36AA-46C8-9ED2-312142F212EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0823CBA-D350-4F82-AB22-4AA185EC6A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="18">
   <si>
     <t>Module</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>Part 2</t>
+  </si>
+  <si>
+    <t>project</t>
   </si>
 </sst>
 </file>
@@ -135,7 +138,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -478,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2DC14-AEBF-4D39-9D44-8E91CF3B9CFE}">
-  <dimension ref="A1:AO20"/>
+  <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -661,16 +664,16 @@
       </c>
     </row>
     <row r="13" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="9">
         <v>2</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="10">
         <v>45011</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E13"/>
@@ -736,7 +739,7 @@
         <v>44993</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
@@ -764,7 +767,7 @@
         <v>44992</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
@@ -796,16 +799,30 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20" s="1">
         <v>5</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="2">
         <v>44999</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="6">
+        <v>45025</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>8</v>
       </c>
     </row>
@@ -816,18 +833,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1002,14 +1019,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D785E3-0195-4B55-858A-A77925B01C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1022,6 +1031,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f99257f0-862f-4026-a3ad-9f44ac784c49"/>
     <ds:schemaRef ds:uri="976089e0-a66d-4ce8-baa4-c0b3da948c6c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0823CBA-D350-4F82-AB22-4AA185EC6A4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF3CD8C-E149-497C-9A46-61D30AC1F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -484,7 +484,7 @@
   <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -743,16 +743,16 @@
       </c>
     </row>
     <row r="16" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="B16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="2">
         <v>45005</v>
       </c>
-      <c r="D16" s="7" t="s">
+      <c r="D16" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -771,16 +771,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="9">
         <v>2</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="10">
         <v>45009</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -833,18 +833,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,6 +1019,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D785E3-0195-4B55-858A-A77925B01C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1031,14 +1039,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f99257f0-862f-4026-a3ad-9f44ac784c49"/>
     <ds:schemaRef ds:uri="976089e0-a66d-4ce8-baa4-c0b3da948c6c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DF3CD8C-E149-497C-9A46-61D30AC1F55F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1084A3-9B94-486B-AA79-D803D138B0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,6 +142,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -155,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -167,6 +173,8 @@
     <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2DC14-AEBF-4D39-9D44-8E91CF3B9CFE}">
   <dimension ref="A1:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -722,7 +730,7 @@
         <v>2</v>
       </c>
       <c r="C14" s="8">
-        <v>45004</v>
+        <v>45013</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>8</v>
@@ -771,16 +779,16 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="9">
+      <c r="B18" s="11">
         <v>2</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="12">
         <v>45009</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="11" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1084A3-9B94-486B-AA79-D803D138B0A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5D7304-DBCA-4F43-9D16-91B748BF93B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
@@ -111,7 +111,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,24 +130,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -161,7 +143,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -169,12 +151,6 @@
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B2DC14-AEBF-4D39-9D44-8E91CF3B9CFE}">
   <dimension ref="A1:AO21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -668,21 +644,21 @@
         <v>44992</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:41" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="9">
+      <c r="B13" s="1">
         <v>2</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="2">
         <v>45011</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>8</v>
+      <c r="D13" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -723,17 +699,17 @@
       <c r="AO13"/>
     </row>
     <row r="14" spans="1:41" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="7">
+      <c r="B14" s="1">
         <v>2</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="2">
         <v>45013</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>8</v>
+      <c r="D14" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:41" x14ac:dyDescent="0.35">
@@ -761,7 +737,7 @@
         <v>45005</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
@@ -779,17 +755,17 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="11">
+      <c r="B18" s="1">
         <v>2</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="2">
         <v>45009</v>
       </c>
-      <c r="D18" s="11" t="s">
-        <v>8</v>
+      <c r="D18" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
@@ -841,18 +817,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1027,14 +1003,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D785E3-0195-4B55-858A-A77925B01C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1047,6 +1015,14 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f99257f0-862f-4026-a3ad-9f44ac784c49"/>
     <ds:schemaRef ds:uri="976089e0-a66d-4ce8-baa4-c0b3da948c6c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Assignments.xlsx
+++ b/Assignments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smitesh\Documents\Football Data Analysis\Masters-Assignment-Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D5D7304-DBCA-4F43-9D16-91B748BF93B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88E4CB1C-C6EA-42B2-BF23-65E05DC9ADDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{05EEA40C-0A3B-49F9-BDA8-2F3C44A6B853}"/>
   </bookViews>
@@ -143,14 +143,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="16" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="16" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -468,7 +469,7 @@
   <dimension ref="A1:AO21"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="A21" sqref="A21:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -769,16 +770,16 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="1">
         <v>2</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="2">
         <v>45019</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -797,16 +798,16 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="7">
         <v>45025</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="6" t="s">
         <v>8</v>
       </c>
     </row>
@@ -817,18 +818,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1003,6 +1004,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1D785E3-0195-4B55-858A-A77925B01C8F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -1015,14 +1024,6 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="f99257f0-862f-4026-a3ad-9f44ac784c49"/>
     <ds:schemaRef ds:uri="976089e0-a66d-4ce8-baa4-c0b3da948c6c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{714D76E8-0BB1-4DEA-B0DA-D33644D01DE6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
